--- a/GenerateApp/tables_short_horiz/Data/8/source.xlsx
+++ b/GenerateApp/tables_short_horiz/Data/8/source.xlsx
@@ -14,75 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>UDR</t>
-  </si>
-  <si>
-    <t>LNC</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>CINF</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>PEG</t>
-  </si>
-  <si>
-    <t>INCY</t>
-  </si>
-  <si>
-    <t>PCAR</t>
-  </si>
-  <si>
-    <t>AOS</t>
-  </si>
-  <si>
-    <t>PCG</t>
-  </si>
-  <si>
-    <t>PHM</t>
-  </si>
-  <si>
-    <t>NKTR</t>
-  </si>
-  <si>
-    <t>AYI</t>
-  </si>
-  <si>
-    <t>NWS</t>
-  </si>
-  <si>
-    <t>IPGP</t>
-  </si>
-  <si>
-    <t>CNP</t>
-  </si>
-  <si>
-    <t>EIX</t>
-  </si>
-  <si>
-    <t>CBS</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>MLM</t>
-  </si>
-  <si>
-    <t>PX</t>
-  </si>
-  <si>
-    <t>WELL</t>
-  </si>
-  <si>
-    <t>HOG</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>06.2010</t>
+  </si>
+  <si>
+    <t>07.2010</t>
+  </si>
+  <si>
+    <t>08.2010</t>
+  </si>
+  <si>
+    <t>09.2010</t>
+  </si>
+  <si>
+    <t>10.2010</t>
+  </si>
+  <si>
+    <t>11.2010</t>
+  </si>
+  <si>
+    <t>12.2010</t>
+  </si>
+  <si>
+    <t>01.2011</t>
+  </si>
+  <si>
+    <t>02.2011</t>
   </si>
 </sst>
 </file>
@@ -143,160 +101,77 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00FF00"/>
+              <a:srgbClr val="0000FF"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$1:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>UDR</c:v>
+                  <c:v>06.2010</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LNC</c:v>
+                  <c:v>07.2010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>COST</c:v>
+                  <c:v>08.2010</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CINF</c:v>
+                  <c:v>09.2010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>IT</c:v>
+                  <c:v>10.2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>PEG</c:v>
+                  <c:v>11.2010</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCY</c:v>
+                  <c:v>12.2010</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>PCAR</c:v>
+                  <c:v>01.2011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>AOS</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>PCG</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>PHM</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>NKTR</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>AYI</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>NWS</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>IPGP</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>CNP</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>EIX</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>CBS</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>QCOM</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>MLM</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>PX</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>WELL</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>HOG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>02.2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$23</c:f>
+              <c:f>Sheet1!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>982</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>459</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>713</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>448</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>758</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>728</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>918</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>449</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>945</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>934</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>909</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>861</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>549</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>646</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>785</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>837</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>749</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>675</c:v>
+                  <c:v>551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,13 +186,16 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="650" baseline="0"/>
+              <a:defRPr sz="650" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -370,10 +248,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -680,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>982</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -699,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>459</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -707,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>713</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -715,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>448</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -723,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>758</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -731,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>728</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -747,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>918</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -755,119 +633,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>675</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
